--- a/excel_data/11 - November/2020-11-11.xlsx
+++ b/excel_data/11 - November/2020-11-11.xlsx
@@ -15,534 +15,534 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="182">
+  <si>
+    <t>Bull Position</t>
+  </si>
+  <si>
+    <t>Bear Position</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
+    <t>ACI</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>ALGN</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>APHA</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>ATVI</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BABA</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>BKNG</t>
+  </si>
+  <si>
+    <t>BNTX</t>
+  </si>
+  <si>
+    <t>BUD</t>
+  </si>
+  <si>
+    <t>BYND</t>
+  </si>
+  <si>
+    <t>CAPITA</t>
+  </si>
+  <si>
+    <t>CARR</t>
+  </si>
+  <si>
+    <t>CARS</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>CHEF</t>
+  </si>
+  <si>
+    <t>CHWY</t>
+  </si>
+  <si>
+    <t>CISCO</t>
+  </si>
+  <si>
+    <t>CNK</t>
+  </si>
+  <si>
+    <t>COE</t>
+  </si>
+  <si>
+    <t>CROX</t>
+  </si>
+  <si>
+    <t>CRSR</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>CUK</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>DDOG</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>DFEN</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>DKNG</t>
+  </si>
+  <si>
+    <t>DMT</t>
+  </si>
+  <si>
+    <t>DNLI</t>
+  </si>
+  <si>
+    <t>DOCU</t>
+  </si>
+  <si>
+    <t>DPZ</t>
+  </si>
+  <si>
+    <t>DRI</t>
+  </si>
+  <si>
+    <t>DTE</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>EGAN</t>
+  </si>
+  <si>
+    <t>EOD</t>
+  </si>
+  <si>
+    <t>EOW</t>
+  </si>
+  <si>
+    <t>ETSY</t>
+  </si>
+  <si>
+    <t>EXPE</t>
+  </si>
+  <si>
+    <t>FANG</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>FOMO</t>
+  </si>
+  <si>
+    <t>FPRX</t>
+  </si>
+  <si>
+    <t>FSLY</t>
+  </si>
+  <si>
+    <t>FSR</t>
+  </si>
+  <si>
+    <t>FUBO</t>
+  </si>
+  <si>
+    <t>FVRR</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>GLD</t>
+  </si>
+  <si>
+    <t>GLW</t>
+  </si>
+  <si>
+    <t>GME</t>
+  </si>
+  <si>
+    <t>GNUS</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>HEXO</t>
+  </si>
+  <si>
+    <t>HYLN</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>ICLN</t>
+  </si>
+  <si>
+    <t>INO</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>ISIS</t>
+  </si>
+  <si>
+    <t>ITM</t>
+  </si>
+  <si>
+    <t>IWM</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>JETS</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>LDOS</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>LMND</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>LUV</t>
+  </si>
+  <si>
+    <t>LYFT</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>MRNA</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>NCLH</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>NICE</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t>NKLA</t>
+  </si>
+  <si>
+    <t>NLS</t>
+  </si>
+  <si>
+    <t>NTES</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>OSTK</t>
+  </si>
+  <si>
+    <t>OTM</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>PINS</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>PLUG</t>
+  </si>
+  <si>
+    <t>PRPL</t>
+  </si>
+  <si>
+    <t>PSTH</t>
+  </si>
+  <si>
+    <t>PTLR</t>
+  </si>
+  <si>
+    <t>PTON</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>RCL</t>
+  </si>
+  <si>
+    <t>REV</t>
+  </si>
+  <si>
+    <t>RGR</t>
+  </si>
+  <si>
+    <t>RKT</t>
+  </si>
+  <si>
+    <t>RVLV</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>SNAP</t>
+  </si>
+  <si>
+    <t>SNE</t>
+  </si>
+  <si>
+    <t>SPCE</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>SPH</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>SPX</t>
+  </si>
+  <si>
+    <t>SPXS</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>SQQQ</t>
+  </si>
+  <si>
+    <t>TDOC</t>
+  </si>
+  <si>
+    <t>TLRY</t>
+  </si>
+  <si>
+    <t>TLT</t>
+  </si>
+  <si>
+    <t>TLY</t>
+  </si>
+  <si>
+    <t>TQQQ</t>
+  </si>
+  <si>
+    <t>TRVN</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>TWLO</t>
+  </si>
+  <si>
+    <t>TWTR</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>ULTA</t>
+  </si>
+  <si>
+    <t>USO</t>
+  </si>
+  <si>
+    <t>UUP</t>
+  </si>
+  <si>
+    <t>UVXY</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VFF</t>
+  </si>
+  <si>
+    <t>VIX</t>
+  </si>
+  <si>
+    <t>VRM</t>
+  </si>
+  <si>
+    <t>VXX</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>WTRG</t>
+  </si>
+  <si>
+    <t>XLE</t>
+  </si>
+  <si>
+    <t>XLF</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>ZOOM</t>
+  </si>
   <si>
     <t>Position</t>
-  </si>
-  <si>
-    <t>Ticker</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>ACB</t>
-  </si>
-  <si>
-    <t>ACI</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>ALGN</t>
-  </si>
-  <si>
-    <t>AMC</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>APHA</t>
-  </si>
-  <si>
-    <t>ATM</t>
-  </si>
-  <si>
-    <t>ATVI</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>BYND</t>
-  </si>
-  <si>
-    <t>CARR</t>
-  </si>
-  <si>
-    <t>CARS</t>
-  </si>
-  <si>
-    <t>CCL</t>
-  </si>
-  <si>
-    <t>CEO</t>
-  </si>
-  <si>
-    <t>CHWY</t>
-  </si>
-  <si>
-    <t>COE</t>
-  </si>
-  <si>
-    <t>CRSR</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>CVS</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>DFEN</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>DMT</t>
-  </si>
-  <si>
-    <t>DNLI</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>DPZ</t>
-  </si>
-  <si>
-    <t>DTE</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>EGAN</t>
-  </si>
-  <si>
-    <t>EOW</t>
-  </si>
-  <si>
-    <t>ETSY</t>
-  </si>
-  <si>
-    <t>FANG</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>FD</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>FOMO</t>
-  </si>
-  <si>
-    <t>FSLY</t>
-  </si>
-  <si>
-    <t>FSR</t>
-  </si>
-  <si>
-    <t>FUBO</t>
-  </si>
-  <si>
-    <t>FVRR</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>GLD</t>
-  </si>
-  <si>
-    <t>GLW</t>
-  </si>
-  <si>
-    <t>GME</t>
-  </si>
-  <si>
-    <t>GNUS</t>
-  </si>
-  <si>
-    <t>GOLD</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>HEXO</t>
-  </si>
-  <si>
-    <t>HYLN</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>ICLN</t>
-  </si>
-  <si>
-    <t>INO</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>ISIS</t>
-  </si>
-  <si>
-    <t>ITM</t>
-  </si>
-  <si>
-    <t>IWM</t>
-  </si>
-  <si>
-    <t>JAN</t>
-  </si>
-  <si>
-    <t>JD</t>
-  </si>
-  <si>
-    <t>JETS</t>
-  </si>
-  <si>
-    <t>JPM</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>LDOS</t>
-  </si>
-  <si>
-    <t>LI</t>
-  </si>
-  <si>
-    <t>LONG</t>
-  </si>
-  <si>
-    <t>LOW</t>
-  </si>
-  <si>
-    <t>LYFT</t>
-  </si>
-  <si>
-    <t>MRNA</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>NET</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>NIO</t>
-  </si>
-  <si>
-    <t>NKLA</t>
-  </si>
-  <si>
-    <t>NLS</t>
-  </si>
-  <si>
-    <t>NTES</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>NVIDIA</t>
-  </si>
-  <si>
-    <t>OSTK</t>
-  </si>
-  <si>
-    <t>OTM</t>
-  </si>
-  <si>
-    <t>PFE</t>
-  </si>
-  <si>
-    <t>PIN</t>
-  </si>
-  <si>
-    <t>PINS</t>
-  </si>
-  <si>
-    <t>PLTR</t>
-  </si>
-  <si>
-    <t>PLUG</t>
-  </si>
-  <si>
-    <t>PRPL</t>
-  </si>
-  <si>
-    <t>PSTH</t>
-  </si>
-  <si>
-    <t>PTON</t>
-  </si>
-  <si>
-    <t>PYPL</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>QQQ</t>
-  </si>
-  <si>
-    <t>RGR</t>
-  </si>
-  <si>
-    <t>RKT</t>
-  </si>
-  <si>
-    <t>RVLV</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>SLV</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>SNE</t>
-  </si>
-  <si>
-    <t>SPCE</t>
-  </si>
-  <si>
-    <t>SPH</t>
-  </si>
-  <si>
-    <t>SPR</t>
-  </si>
-  <si>
-    <t>SPX</t>
-  </si>
-  <si>
-    <t>SPXS</t>
-  </si>
-  <si>
-    <t>SPY</t>
-  </si>
-  <si>
-    <t>SQ</t>
-  </si>
-  <si>
-    <t>SQQQ</t>
-  </si>
-  <si>
-    <t>TDOC</t>
-  </si>
-  <si>
-    <t>TLT</t>
-  </si>
-  <si>
-    <t>TLY</t>
-  </si>
-  <si>
-    <t>TQQQ</t>
-  </si>
-  <si>
-    <t>TRVN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>TWTR</t>
-  </si>
-  <si>
-    <t>ULTA</t>
-  </si>
-  <si>
-    <t>USO</t>
-  </si>
-  <si>
-    <t>UUP</t>
-  </si>
-  <si>
-    <t>UVXY</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>VFF</t>
-  </si>
-  <si>
-    <t>VIX</t>
-  </si>
-  <si>
-    <t>VXX</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
-    <t>WTRG</t>
-  </si>
-  <si>
-    <t>XLE</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>ZM</t>
-  </si>
-  <si>
-    <t>calls</t>
-  </si>
-  <si>
-    <t>BAC</t>
-  </si>
-  <si>
-    <t>BKNG</t>
-  </si>
-  <si>
-    <t>BNTX</t>
-  </si>
-  <si>
-    <t>BUD</t>
-  </si>
-  <si>
-    <t>CAPITA</t>
-  </si>
-  <si>
-    <t>CHEF</t>
-  </si>
-  <si>
-    <t>CISCO</t>
-  </si>
-  <si>
-    <t>CNK</t>
-  </si>
-  <si>
-    <t>CROX</t>
-  </si>
-  <si>
-    <t>CUK</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>DKNG</t>
-  </si>
-  <si>
-    <t>DRI</t>
-  </si>
-  <si>
-    <t>EOD</t>
-  </si>
-  <si>
-    <t>EXPE</t>
-  </si>
-  <si>
-    <t>FPRX</t>
-  </si>
-  <si>
-    <t>GOOG</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>LMND</t>
-  </si>
-  <si>
-    <t>LUV</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>NCLH</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>PTLR</t>
-  </si>
-  <si>
-    <t>RCL</t>
-  </si>
-  <si>
-    <t>REV</t>
-  </si>
-  <si>
-    <t>SAVE</t>
-  </si>
-  <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>TLRY</t>
-  </si>
-  <si>
-    <t>TWLO</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>VRM</t>
-  </si>
-  <si>
-    <t>XLF</t>
-  </si>
-  <si>
-    <t>ZOOM</t>
-  </si>
-  <si>
-    <t>puts</t>
   </si>
   <si>
     <t>AMAT</t>
@@ -651,73 +651,73 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Position</c:v>
+                  <c:v>Bull Position</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$A$138</c:f>
+              <c:f>Sheet1!$B$2:$A$173</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$138</c:f>
+              <c:f>Sheet1!$C$2:$C$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="137"/>
+                <c:ptCount val="172"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
@@ -725,16 +725,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2</c:v>
@@ -743,340 +743,445 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="105">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="118">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="126">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="147">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="168">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>29</c:v>
+                <c:pt idx="171">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1206,13 +1311,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1557,7 +1662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1565,32 +1670,32 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>175</v>
+      <c r="B2">
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>175</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1600,107 +1705,107 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>175</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="C5">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>175</v>
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>175</v>
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1708,10 +1813,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1719,54 +1824,54 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>175</v>
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>175</v>
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>175</v>
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1774,10 +1879,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>175</v>
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1785,21 +1890,21 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>175</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1807,32 +1912,32 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>175</v>
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>175</v>
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>175</v>
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1840,10 +1945,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>175</v>
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1851,32 +1956,32 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>175</v>
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>175</v>
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>175</v>
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1884,10 +1989,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>175</v>
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1895,21 +2000,21 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>175</v>
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>175</v>
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1917,32 +2022,32 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>175</v>
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>175</v>
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>175</v>
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1950,32 +2055,32 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>175</v>
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>175</v>
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>175</v>
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1983,43 +2088,43 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>175</v>
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>175</v>
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>175</v>
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>175</v>
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2027,21 +2132,21 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>175</v>
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>175</v>
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2049,32 +2154,32 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>175</v>
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>175</v>
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>175</v>
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2082,21 +2187,21 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>175</v>
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>175</v>
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2104,98 +2209,98 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>175</v>
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>175</v>
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>175</v>
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>175</v>
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>175</v>
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>175</v>
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>175</v>
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>175</v>
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>175</v>
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2203,10 +2308,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>175</v>
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2214,98 +2319,98 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>175</v>
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>175</v>
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>175</v>
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>175</v>
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>175</v>
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>175</v>
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>175</v>
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>175</v>
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>175</v>
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2313,76 +2418,76 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>175</v>
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>175</v>
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>175</v>
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>175</v>
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>175</v>
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>175</v>
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2390,10 +2495,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>175</v>
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2401,10 +2506,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>175</v>
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2412,21 +2517,21 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>175</v>
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>175</v>
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2434,65 +2539,65 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>175</v>
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>11</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>175</v>
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>175</v>
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>175</v>
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>175</v>
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>175</v>
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2500,54 +2605,54 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>139</v>
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>139</v>
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>139</v>
+        <v>89</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>139</v>
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>139</v>
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -2555,76 +2660,76 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>139</v>
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>139</v>
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>139</v>
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>139</v>
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>139</v>
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>139</v>
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>139</v>
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2632,10 +2737,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>139</v>
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2643,21 +2748,21 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>139</v>
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>139</v>
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2665,318 +2770,318 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>139</v>
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>139</v>
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>139</v>
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
       </c>
       <c r="C104">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>139</v>
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>79</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>139</v>
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>139</v>
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>139</v>
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>139</v>
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
+      </c>
+      <c r="B114">
+        <v>22</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
       </c>
       <c r="C115">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
       </c>
       <c r="C118">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>139</v>
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>39</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -2984,76 +3089,76 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
+      </c>
+      <c r="B131">
+        <v>25</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
       </c>
       <c r="C132">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -3061,24 +3166,409 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
       <c r="C138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144">
+        <v>17</v>
+      </c>
+      <c r="C144">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153">
+        <v>9</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160">
+        <v>8</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165">
+        <v>11</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172">
         <v>29</v>
+      </c>
+      <c r="C172">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3097,15 +3587,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -3121,7 +3611,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3129,7 +3619,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3153,7 +3643,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -3169,7 +3659,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3177,7 +3667,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3185,7 +3675,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3193,7 +3683,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3201,7 +3691,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3209,7 +3699,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3217,7 +3707,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3233,7 +3723,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -3241,7 +3731,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3249,7 +3739,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3265,7 +3755,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3273,7 +3763,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -3281,7 +3771,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -3289,7 +3779,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3297,7 +3787,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B26">
         <v>2</v>
